--- a/import/VST.xlsx
+++ b/import/VST.xlsx
@@ -274,7 +274,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -334,6 +334,12 @@
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -475,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -560,6 +566,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -596,11 +606,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -608,11 +618,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -628,7 +638,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,19 +646,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -911,7 +921,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1090,10 +1100,10 @@
     <row r="15" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="20"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="15"/>
       <c r="F15" s="18"/>
       <c r="G15" s="19"/>
@@ -1150,7 +1160,7 @@
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="16"/>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -1163,11 +1173,11 @@
     </row>
     <row r="21" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="12"/>
@@ -1214,10 +1224,10 @@
       <c r="B25" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1225,12 +1235,12 @@
       <c r="B26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="28"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1259,114 +1269,114 @@
     </row>
     <row r="29" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="16"/>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D29" s="10"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="16"/>
-      <c r="B30" s="29"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="10" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
       <c r="G30" s="19"/>
     </row>
     <row r="31" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="16"/>
-      <c r="B31" s="29"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="10"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
       <c r="G31" s="19"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="16"/>
-      <c r="B32" s="29"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
       <c r="G32" s="19"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="16"/>
-      <c r="B33" s="29"/>
+      <c r="B33" s="30"/>
       <c r="C33" s="10" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
       <c r="G33" s="19"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="16"/>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="30" t="s">
         <v>45</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
       <c r="G34" s="19"/>
     </row>
     <row r="35" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="16"/>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="33" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
       <c r="G35" s="19"/>
     </row>
     <row r="36" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="12"/>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
       <c r="G36" s="12"/>
     </row>
     <row r="37" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="16"/>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="28"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
       <c r="G37" s="19"/>
     </row>
     <row r="38" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="16"/>
-      <c r="B38" s="37"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="10" t="s">
         <v>52</v>
       </c>
@@ -1377,13 +1387,13 @@
     </row>
     <row r="39" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1391,12 +1401,12 @@
       <c r="B40" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="19"/>
     </row>
     <row r="41" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1438,7 +1448,7 @@
     </row>
     <row r="44" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="16"/>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="30" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -1451,7 +1461,7 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="16"/>
-      <c r="B45" s="29"/>
+      <c r="B45" s="30"/>
       <c r="C45" s="10" t="s">
         <v>63</v>
       </c>
@@ -1462,50 +1472,50 @@
     </row>
     <row r="46" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="16"/>
-      <c r="B46" s="29"/>
+      <c r="B46" s="30"/>
       <c r="C46" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="32"/>
       <c r="G46" s="19"/>
     </row>
     <row r="47" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="16"/>
-      <c r="B47" s="29"/>
+      <c r="B47" s="30"/>
       <c r="C47" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="32"/>
       <c r="G47" s="19"/>
     </row>
     <row r="48" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="16"/>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="30" t="s">
         <v>66</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="10"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="32"/>
       <c r="G48" s="19"/>
     </row>
     <row r="49" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="16"/>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="30" t="s">
         <v>68</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>69</v>
       </c>
       <c r="D49" s="10"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="32"/>
       <c r="G49" s="19"/>
     </row>
     <row r="50" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1517,8 +1527,8 @@
         <v>71</v>
       </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="32"/>
       <c r="G50" s="19"/>
     </row>
     <row r="51" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1528,8 +1538,8 @@
         <v>72</v>
       </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="32"/>
       <c r="G51" s="19"/>
     </row>
     <row r="52" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1541,8 +1551,8 @@
         <v>74</v>
       </c>
       <c r="D52" s="10"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="32"/>
       <c r="G52" s="19"/>
     </row>
     <row r="53" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1552,8 +1562,8 @@
         <v>75</v>
       </c>
       <c r="D53" s="10"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="32"/>
       <c r="G53" s="19"/>
     </row>
     <row r="54" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1565,144 +1575,144 @@
         <v>77</v>
       </c>
       <c r="D54" s="10"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
       <c r="G54" s="19"/>
     </row>
     <row r="55" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="16"/>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D55" s="10"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
       <c r="G55" s="19"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="16"/>
-      <c r="B56" s="32"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="10" t="s">
         <v>80</v>
       </c>
       <c r="D56" s="10"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
       <c r="G56" s="19"/>
     </row>
     <row r="57" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="16"/>
-      <c r="B57" s="32"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
       <c r="G57" s="19"/>
     </row>
     <row r="58" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="2"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="2"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="41"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42" t="s">
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="F59" s="41"/>
+      <c r="F59" s="42"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="2"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="2"/>
-      <c r="B61" s="43"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="2"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
       <c r="G62" s="2"/>
     </row>
     <row r="63" customFormat="false" ht="8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="2"/>
-      <c r="B63" s="43"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
       <c r="G63" s="2"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="2"/>
-      <c r="B64" s="43"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
       <c r="G64" s="2"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
       <c r="G65" s="2"/>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="2"/>
-      <c r="B66" s="43"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
       <c r="G66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="2"/>
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
       <c r="G67" s="2"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="2"/>
-      <c r="B68" s="43"/>
-      <c r="C68" s="43"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
       <c r="G68" s="2"/>
     </row>
   </sheetData>
